--- a/storage/app/templates/TravelOrderForm.xlsx
+++ b/storage/app/templates/TravelOrderForm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4050" windowWidth="20490" windowHeight="7290"/>
+    <workbookView xWindow="0" yWindow="4950" windowWidth="20490" windowHeight="7290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -161,7 +161,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -197,11 +197,14 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -485,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" showRowColHeaders="0" tabSelected="1" showRuler="0" view="pageLayout" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H15" sqref="H15"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -500,6 +503,7 @@
     <col min="7" max="7" width="4.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.5703125" customWidth="1"/>
     <col min="10" max="10" width="3" customWidth="1"/>
+    <col min="11" max="11" width="11.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
@@ -581,11 +585,11 @@
       <c r="K10" s="10"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
+      <c r="J11" s="16"/>
+      <c r="K11" s="16"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
@@ -705,12 +709,12 @@
       <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="16"/>
-      <c r="E28" s="16"/>
-      <c r="F28" s="16"/>
-      <c r="G28" s="16"/>
-      <c r="H28" s="16"/>
-      <c r="I28" s="16"/>
+      <c r="D28" s="15"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="15"/>
+      <c r="G28" s="15"/>
+      <c r="H28" s="15"/>
+      <c r="I28" s="15"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -729,7 +733,7 @@
       <c r="J32" s="13"/>
       <c r="K32" s="13"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B33" s="13"/>
       <c r="C33" s="13"/>
       <c r="D33" s="13"/>
@@ -766,18 +770,18 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D39" s="13"/>
-      <c r="E39" s="13"/>
-      <c r="F39" s="13"/>
-      <c r="G39" s="13"/>
-      <c r="H39" s="13"/>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D40" s="13"/>
-      <c r="E40" s="13"/>
-      <c r="F40" s="13"/>
-      <c r="G40" s="13"/>
-      <c r="H40" s="13"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+    </row>
+    <row r="40" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17"/>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>

--- a/storage/app/templates/TravelOrderForm.xlsx
+++ b/storage/app/templates/TravelOrderForm.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="4950" windowWidth="20490" windowHeight="7290"/>
+    <workbookView xWindow="0" yWindow="5400" windowWidth="20490" windowHeight="7290"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -182,29 +182,29 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -488,8 +488,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:K42"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" showRuler="0" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+    <sheetView showGridLines="0" tabSelected="1" showRuler="0" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G30" sqref="G30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -570,8 +570,8 @@
       <c r="E8" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
       <c r="H8" s="7"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
@@ -580,30 +580,30 @@
       <c r="H9" s="4"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
+      <c r="I10" s="11"/>
+      <c r="J10" s="11"/>
+      <c r="K10" s="11"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="I11" s="16" t="s">
+      <c r="I11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="J11" s="16"/>
-      <c r="K11" s="16"/>
+      <c r="J11" s="12"/>
+      <c r="K11" s="12"/>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>6</v>
       </c>
-      <c r="B13" s="13"/>
-      <c r="C13" s="13"/>
-      <c r="D13" s="13"/>
+      <c r="B13" s="10"/>
+      <c r="C13" s="10"/>
+      <c r="D13" s="10"/>
       <c r="E13" s="4"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="11"/>
+      <c r="D14" s="11"/>
       <c r="E14" s="4"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
@@ -615,28 +615,28 @@
       <c r="A17" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="12"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="12"/>
-      <c r="G17" s="12"/>
-      <c r="H17" s="12"/>
-      <c r="I17" s="12"/>
-      <c r="J17" s="12"/>
-      <c r="K17" s="12"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="14"/>
+      <c r="E17" s="14"/>
+      <c r="F17" s="14"/>
+      <c r="G17" s="14"/>
+      <c r="H17" s="14"/>
+      <c r="I17" s="14"/>
+      <c r="J17" s="14"/>
+      <c r="K17" s="14"/>
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A18" s="10"/>
-      <c r="B18" s="10"/>
-      <c r="C18" s="10"/>
-      <c r="D18" s="10"/>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="10"/>
-      <c r="H18" s="10"/>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
-      <c r="K18" s="10"/>
+      <c r="A18" s="11"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="11"/>
+      <c r="D18" s="11"/>
+      <c r="E18" s="11"/>
+      <c r="F18" s="11"/>
+      <c r="G18" s="11"/>
+      <c r="H18" s="11"/>
+      <c r="I18" s="11"/>
+      <c r="J18" s="11"/>
+      <c r="K18" s="11"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="3"/>
@@ -666,17 +666,17 @@
       <c r="K21" s="2"/>
     </row>
     <row r="22" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="12"/>
-      <c r="G22" s="12"/>
-      <c r="H22" s="12"/>
-      <c r="I22" s="12"/>
-      <c r="J22" s="12"/>
-      <c r="K22" s="12"/>
+      <c r="A22" s="14"/>
+      <c r="B22" s="14"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="14"/>
+      <c r="E22" s="14"/>
+      <c r="F22" s="14"/>
+      <c r="G22" s="14"/>
+      <c r="H22" s="14"/>
+      <c r="I22" s="14"/>
+      <c r="J22" s="14"/>
+      <c r="K22" s="14"/>
     </row>
     <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="3"/>
@@ -695,26 +695,26 @@
       <c r="A26" t="s">
         <v>9</v>
       </c>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
+      <c r="C26" s="11"/>
+      <c r="D26" s="11"/>
       <c r="E26" s="7" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="10"/>
-      <c r="G26" s="14"/>
-      <c r="H26" s="14"/>
+      <c r="F26" s="11"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
       <c r="I26" s="4"/>
     </row>
     <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>12</v>
       </c>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="F28" s="15"/>
-      <c r="G28" s="15"/>
-      <c r="H28" s="15"/>
-      <c r="I28" s="15"/>
+      <c r="D28" s="17"/>
+      <c r="E28" s="17"/>
+      <c r="F28" s="17"/>
+      <c r="G28" s="17"/>
+      <c r="H28" s="17"/>
+      <c r="I28" s="17"/>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
@@ -725,44 +725,44 @@
       </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B32" s="13"/>
-      <c r="C32" s="13"/>
-      <c r="D32" s="13"/>
-      <c r="H32" s="13"/>
-      <c r="I32" s="13"/>
-      <c r="J32" s="13"/>
-      <c r="K32" s="13"/>
+      <c r="B32" s="10"/>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
     </row>
     <row r="33" spans="1:11" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="13"/>
-      <c r="C33" s="13"/>
-      <c r="D33" s="13"/>
-      <c r="H33" s="13"/>
-      <c r="I33" s="13"/>
-      <c r="J33" s="13"/>
-      <c r="K33" s="13"/>
+      <c r="B33" s="10"/>
+      <c r="C33" s="10"/>
+      <c r="D33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
     </row>
     <row r="34" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B34" s="10"/>
-      <c r="C34" s="10"/>
-      <c r="D34" s="10"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="11"/>
+      <c r="D34" s="11"/>
       <c r="E34" s="5"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
-      <c r="K34" s="10"/>
+      <c r="H34" s="11"/>
+      <c r="I34" s="11"/>
+      <c r="J34" s="11"/>
+      <c r="K34" s="11"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B35" s="11" t="s">
+      <c r="B35" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="C35" s="11"/>
-      <c r="D35" s="11"/>
+      <c r="C35" s="13"/>
+      <c r="D35" s="13"/>
       <c r="E35" s="6"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
+      <c r="K35" s="13"/>
     </row>
     <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
@@ -770,18 +770,18 @@
       </c>
     </row>
     <row r="39" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="D39" s="17"/>
-      <c r="E39" s="17"/>
-      <c r="F39" s="17"/>
-      <c r="G39" s="17"/>
-      <c r="H39" s="17"/>
+      <c r="D39" s="15"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="15"/>
+      <c r="G39" s="15"/>
+      <c r="H39" s="15"/>
     </row>
     <row r="40" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D40" s="17"/>
-      <c r="E40" s="17"/>
-      <c r="F40" s="17"/>
-      <c r="G40" s="17"/>
-      <c r="H40" s="17"/>
+      <c r="D40" s="15"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="15"/>
+      <c r="G40" s="15"/>
+      <c r="H40" s="15"/>
     </row>
     <row r="41" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A41" s="9"/>
@@ -813,14 +813,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="A2:K2"/>
-    <mergeCell ref="A3:K3"/>
-    <mergeCell ref="A4:K4"/>
-    <mergeCell ref="A7:K7"/>
-    <mergeCell ref="B13:D13"/>
-    <mergeCell ref="I10:K10"/>
-    <mergeCell ref="I11:K11"/>
-    <mergeCell ref="F8:G8"/>
     <mergeCell ref="A42:K42"/>
     <mergeCell ref="A41:K41"/>
     <mergeCell ref="B34:D34"/>
@@ -837,6 +829,14 @@
     <mergeCell ref="D39:H40"/>
     <mergeCell ref="F26:H26"/>
     <mergeCell ref="D28:I28"/>
+    <mergeCell ref="A2:K2"/>
+    <mergeCell ref="A3:K3"/>
+    <mergeCell ref="A4:K4"/>
+    <mergeCell ref="A7:K7"/>
+    <mergeCell ref="B13:D13"/>
+    <mergeCell ref="I10:K10"/>
+    <mergeCell ref="I11:K11"/>
+    <mergeCell ref="F8:G8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
